--- a/tests/CentralCityCadetSquadron.xlsx
+++ b/tests/CentralCityCadetSquadron.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/the-hawk/Repositories/Code/bcs-portal/tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35BA107D-51DC-9847-AB6A-9890B81CB5DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4014150-6FD3-F148-BECD-F8BAA8F667D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" activeTab="1" xr2:uid="{A1ED1547-4E15-8141-804B-CFCB973BB73E}"/>
   </bookViews>
@@ -19,6 +19,8 @@
     <sheet name="flights" sheetId="5" r:id="rId4"/>
     <sheet name="elements" sheetId="6" r:id="rId5"/>
     <sheet name="element_members" sheetId="4" r:id="rId6"/>
+    <sheet name="staff_groups" sheetId="7" r:id="rId7"/>
+    <sheet name="staff_group_direct_reports" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2475" uniqueCount="1025">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2851" uniqueCount="1084">
   <si>
     <t>id</t>
   </si>
@@ -3109,13 +3111,190 @@
     <t>member_id</t>
   </si>
   <si>
-    <t>''</t>
-  </si>
-  <si>
-    <t>order</t>
-  </si>
-  <si>
     <t>C/ESN3</t>
+  </si>
+  <si>
+    <t>staff_group_id</t>
+  </si>
+  <si>
+    <t>leader_id</t>
+  </si>
+  <si>
+    <t>Command Staff</t>
+  </si>
+  <si>
+    <t>Program Staff</t>
+  </si>
+  <si>
+    <t>staff_supergroup_id</t>
+  </si>
+  <si>
+    <t>Aerospace Education Staff</t>
+  </si>
+  <si>
+    <t>Character Development Staff</t>
+  </si>
+  <si>
+    <t>Leadership Education Staff</t>
+  </si>
+  <si>
+    <t>Cyber Education Staff</t>
+  </si>
+  <si>
+    <t>duty_assignment_id</t>
+  </si>
+  <si>
+    <t>Activities Staff</t>
+  </si>
+  <si>
+    <t>Fitness Staff</t>
+  </si>
+  <si>
+    <t>Support Staff</t>
+  </si>
+  <si>
+    <t>Admin Staff</t>
+  </si>
+  <si>
+    <t>IT Staff</t>
+  </si>
+  <si>
+    <t>Communications Staff</t>
+  </si>
+  <si>
+    <t>Logistics Staff</t>
+  </si>
+  <si>
+    <t>Supply Staff</t>
+  </si>
+  <si>
+    <t>Flight Staff</t>
+  </si>
+  <si>
+    <t>b1d95b8c-9095-4621-af46-9cc9eadbd8e9</t>
+  </si>
+  <si>
+    <t>2f4fe903-efe2-4385-a7cf-23b15aa665cc</t>
+  </si>
+  <si>
+    <t>c5f50f12-32e0-41c0-b6a2-c6410563aa40</t>
+  </si>
+  <si>
+    <t>74e2b25e-9eb6-4f04-b402-a28e5832d590</t>
+  </si>
+  <si>
+    <t>0523abd1-7cdb-4b3a-adf0-e7fa86fbc050</t>
+  </si>
+  <si>
+    <t>9f7da56e-d4b0-4771-9127-f0a904edcad7</t>
+  </si>
+  <si>
+    <t>c00d7fc9-4e0b-4230-8ba9-eab29e1a44a6</t>
+  </si>
+  <si>
+    <t>464e30b6-9b47-44ff-a119-7b68d7e55db1</t>
+  </si>
+  <si>
+    <t>81fccffe-983b-4013-b710-eb8d6a2369ea</t>
+  </si>
+  <si>
+    <t>7272b595-700b-40e3-96da-d7ece0e02052</t>
+  </si>
+  <si>
+    <t>ead4c78d-d1a1-48ac-a668-42c2f87745ca</t>
+  </si>
+  <si>
+    <t>fdc5fbc6-3531-40b7-ac43-159971a16408</t>
+  </si>
+  <si>
+    <t>2e9cf93c-3ea7-43b7-86de-b8b3d6e3203e</t>
+  </si>
+  <si>
+    <t>f994f75c-7610-4218-bad3-058f8046a5a8</t>
+  </si>
+  <si>
+    <t>cc1252a6-1dce-42ba-8455-96530bcacf0c</t>
+  </si>
+  <si>
+    <t>Cadet Command Staff</t>
+  </si>
+  <si>
+    <t>Cadet Program Staff</t>
+  </si>
+  <si>
+    <t>Cadet Aerospace Education Staff</t>
+  </si>
+  <si>
+    <t>Cadet Cyber Education Staff</t>
+  </si>
+  <si>
+    <t>Cadet Leadership Education Staff</t>
+  </si>
+  <si>
+    <t>Cadet Activities Staff</t>
+  </si>
+  <si>
+    <t>Cadet Fitness Staff</t>
+  </si>
+  <si>
+    <t>Cadet Support Staff</t>
+  </si>
+  <si>
+    <t>Cadet Admin Staff</t>
+  </si>
+  <si>
+    <t>Cadet Communications Staff</t>
+  </si>
+  <si>
+    <t>Cadet IT Staff</t>
+  </si>
+  <si>
+    <t>Cadet Logistics Staff</t>
+  </si>
+  <si>
+    <t>Cadet Supply Staff</t>
+  </si>
+  <si>
+    <t>9142be5e-d69f-4642-bc61-a52cca904d92</t>
+  </si>
+  <si>
+    <t>04dd8ae4-9874-4601-be98-2a3c6fdc06a3</t>
+  </si>
+  <si>
+    <t>f856baf8-63d7-487e-ace7-7306c7d49e3b</t>
+  </si>
+  <si>
+    <t>ad55ffda-8f2c-4ab1-8f5d-6afc9b7e55cd</t>
+  </si>
+  <si>
+    <t>59e418eb-7f4a-4d15-8071-bb7929e4be92</t>
+  </si>
+  <si>
+    <t>b88d8d8f-e207-436f-ac64-8aa37af1e904</t>
+  </si>
+  <si>
+    <t>76e2d547-9b6c-4d45-ba9d-690df85412ab</t>
+  </si>
+  <si>
+    <t>2780b6cc-e911-48a7-8126-33f5a6a4fff0</t>
+  </si>
+  <si>
+    <t>35a9d24d-3fb7-4086-a5a4-cbb7da740533</t>
+  </si>
+  <si>
+    <t>c9cb8fc3-02f6-4560-bc60-5700efb82254</t>
+  </si>
+  <si>
+    <t>2016ff0e-0b31-4439-a12d-2178a5d6a01e</t>
+  </si>
+  <si>
+    <t>df242283-aa0c-4db6-bd8a-ae7eb0e7b4de</t>
+  </si>
+  <si>
+    <t>26592699-3859-4f3e-9482-ff0b503a03c6</t>
+  </si>
+  <si>
+    <t>reports_to</t>
   </si>
 </sst>
 </file>
@@ -8415,2026 +8594,2161 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3181D70F-1060-AC4B-B08F-59091BE5BBF2}">
   <dimension ref="A1:G100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="36.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.83203125" customWidth="1"/>
     <col min="7" max="7" width="36.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>1023</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>570</v>
       </c>
       <c r="C1" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="D1" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="E1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="F1" t="s">
-        <v>573</v>
+        <v>1083</v>
       </c>
       <c r="G1" t="s">
         <v>574</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" t="s">
         <v>838</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E2" t="b">
+      <c r="C2" s="5"/>
+      <c r="D2" t="b">
         <v>0</v>
       </c>
+      <c r="E2" t="s">
+        <v>591</v>
+      </c>
       <c r="F2" t="s">
-        <v>591</v>
+        <v>991</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="A3" t="s">
         <v>839</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E3" t="b">
+      <c r="C3" s="5"/>
+      <c r="D3" t="b">
         <v>0</v>
       </c>
+      <c r="E3" t="s">
+        <v>606</v>
+      </c>
       <c r="F3" t="s">
-        <v>606</v>
+        <v>838</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="A4" t="s">
         <v>840</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E4" t="b">
+      <c r="C4" s="5"/>
+      <c r="D4" t="b">
         <v>0</v>
       </c>
+      <c r="E4" t="s">
+        <v>675</v>
+      </c>
       <c r="F4" t="s">
-        <v>675</v>
+        <v>838</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
+      <c r="A5" t="s">
         <v>841</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E5" t="b">
+      <c r="C5" s="5"/>
+      <c r="D5" t="b">
         <v>0</v>
       </c>
+      <c r="E5" t="s">
+        <v>594</v>
+      </c>
       <c r="F5" t="s">
-        <v>594</v>
+        <v>838</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
+      <c r="A6" t="s">
         <v>842</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E6" t="b">
+      <c r="C6" s="5"/>
+      <c r="D6" t="b">
         <v>0</v>
       </c>
+      <c r="E6" t="s">
+        <v>594</v>
+      </c>
       <c r="F6" t="s">
-        <v>594</v>
+        <v>841</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
+      <c r="A7" t="s">
         <v>843</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E7" t="b">
+      <c r="C7" s="5"/>
+      <c r="D7" t="b">
         <v>0</v>
       </c>
+      <c r="E7" t="s">
+        <v>669</v>
+      </c>
       <c r="F7" t="s">
-        <v>669</v>
+        <v>838</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
+      <c r="A8" t="s">
         <v>844</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E8" t="b">
+      <c r="C8" s="5"/>
+      <c r="D8" t="b">
         <v>0</v>
       </c>
+      <c r="E8" t="s">
+        <v>585</v>
+      </c>
       <c r="F8" t="s">
-        <v>585</v>
+        <v>839</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
+      <c r="A9" t="s">
         <v>845</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E9" t="b">
+      <c r="C9" s="5"/>
+      <c r="D9" t="b">
         <v>0</v>
       </c>
+      <c r="E9" t="s">
+        <v>603</v>
+      </c>
       <c r="F9" t="s">
-        <v>603</v>
+        <v>844</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
+      <c r="A10" t="s">
         <v>846</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E10" t="b">
+      <c r="C10" s="5"/>
+      <c r="D10" t="b">
         <v>0</v>
       </c>
+      <c r="E10" t="s">
+        <v>624</v>
+      </c>
       <c r="F10" t="s">
-        <v>624</v>
+        <v>839</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B11" s="4" t="s">
+      <c r="A11" s="4" t="s">
         <v>847</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E11" t="b">
+      <c r="C11" s="5"/>
+      <c r="D11" t="b">
         <v>0</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="E11" s="4" t="s">
         <v>588</v>
+      </c>
+      <c r="F11" t="s">
+        <v>846</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
+      <c r="A12" t="s">
         <v>848</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E12" t="b">
+      <c r="C12" s="5"/>
+      <c r="D12" t="b">
         <v>0</v>
       </c>
+      <c r="E12" t="s">
+        <v>648</v>
+      </c>
       <c r="F12" t="s">
-        <v>648</v>
+        <v>839</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
+      <c r="A13" t="s">
         <v>849</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>945</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E13" t="b">
+      <c r="C13" s="5"/>
+      <c r="D13" t="b">
         <v>0</v>
       </c>
+      <c r="E13" t="s">
+        <v>575</v>
+      </c>
       <c r="F13" t="s">
-        <v>575</v>
+        <v>848</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
+      <c r="A14" t="s">
         <v>850</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D14" t="s">
+      <c r="C14" t="s">
         <v>937</v>
       </c>
-      <c r="E14" t="b">
+      <c r="D14" t="b">
         <v>1</v>
       </c>
+      <c r="E14" t="s">
+        <v>648</v>
+      </c>
       <c r="F14" t="s">
-        <v>648</v>
+        <v>848</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
+      <c r="A15" t="s">
         <v>851</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D15" t="s">
+      <c r="C15" t="s">
         <v>938</v>
       </c>
-      <c r="E15" t="b">
+      <c r="D15" t="b">
         <v>1</v>
       </c>
+      <c r="E15" t="s">
+        <v>648</v>
+      </c>
       <c r="F15" t="s">
-        <v>648</v>
+        <v>848</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
+      <c r="A16" t="s">
         <v>852</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E16" t="b">
+      <c r="C16" s="5"/>
+      <c r="D16" t="b">
         <v>0</v>
       </c>
+      <c r="E16" t="s">
+        <v>633</v>
+      </c>
       <c r="F16" t="s">
-        <v>633</v>
+        <v>839</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>853</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E17" t="b">
+      <c r="C17" s="5"/>
+      <c r="D17" t="b">
         <v>0</v>
       </c>
+      <c r="E17" t="s">
+        <v>579</v>
+      </c>
       <c r="F17" t="s">
-        <v>579</v>
+        <v>838</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>854</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E18" t="b">
+      <c r="C18" s="5"/>
+      <c r="D18" t="b">
         <v>0</v>
       </c>
+      <c r="E18" t="s">
+        <v>660</v>
+      </c>
       <c r="F18" t="s">
-        <v>660</v>
+        <v>853</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>855</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E19" t="b">
+      <c r="C19" s="5"/>
+      <c r="D19" t="b">
         <v>0</v>
       </c>
+      <c r="E19" t="s">
+        <v>630</v>
+      </c>
       <c r="F19" t="s">
-        <v>630</v>
+        <v>853</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>856</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E20" t="b">
+      <c r="C20" s="5"/>
+      <c r="D20" t="b">
         <v>0</v>
       </c>
+      <c r="E20" t="s">
+        <v>651</v>
+      </c>
       <c r="F20" t="s">
-        <v>651</v>
+        <v>853</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>857</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="5" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E21" t="b">
+      <c r="C21" s="5"/>
+      <c r="D21" t="b">
         <v>0</v>
       </c>
+      <c r="E21" t="s">
+        <v>681</v>
+      </c>
       <c r="F21" t="s">
-        <v>681</v>
+        <v>856</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>858</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="5" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E22" t="b">
+      <c r="C22" s="5"/>
+      <c r="D22" t="b">
         <v>0</v>
       </c>
+      <c r="E22" t="s">
+        <v>600</v>
+      </c>
       <c r="F22" t="s">
-        <v>600</v>
+        <v>853</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>859</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="5" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E23" t="b">
+      <c r="C23" s="5"/>
+      <c r="D23" t="b">
         <v>0</v>
       </c>
+      <c r="E23" t="s">
+        <v>645</v>
+      </c>
       <c r="F23" t="s">
-        <v>645</v>
+        <v>858</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>860</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D24" s="5" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E24" t="b">
+      <c r="C24" s="5"/>
+      <c r="D24" t="b">
         <v>0</v>
       </c>
+      <c r="E24" t="s">
+        <v>712</v>
+      </c>
       <c r="F24" t="s">
-        <v>712</v>
+        <v>838</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>861</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D25" s="5" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E25" t="b">
+      <c r="C25" s="5"/>
+      <c r="D25" t="b">
         <v>0</v>
       </c>
+      <c r="E25" t="s">
+        <v>727</v>
+      </c>
       <c r="F25" t="s">
-        <v>727</v>
+        <v>860</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>862</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D26" s="5" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E26" t="b">
+      <c r="C26" s="5"/>
+      <c r="D26" t="b">
         <v>0</v>
       </c>
+      <c r="E26" t="s">
+        <v>730</v>
+      </c>
       <c r="F26" t="s">
-        <v>730</v>
+        <v>860</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B27" t="s">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>863</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D27" s="5" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E27" t="b">
+      <c r="C27" s="5"/>
+      <c r="D27" t="b">
         <v>0</v>
       </c>
+      <c r="E27" t="s">
+        <v>745</v>
+      </c>
       <c r="F27" t="s">
-        <v>745</v>
+        <v>860</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B28" t="s">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>864</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="5" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E28" t="b">
+      <c r="C28" s="5"/>
+      <c r="D28" t="b">
         <v>0</v>
       </c>
+      <c r="E28" t="s">
+        <v>709</v>
+      </c>
       <c r="F28" t="s">
-        <v>709</v>
+        <v>862</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>865</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="5" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E29" t="b">
+      <c r="C29" s="5"/>
+      <c r="D29" t="b">
         <v>0</v>
       </c>
+      <c r="E29" t="s">
+        <v>706</v>
+      </c>
       <c r="F29" t="s">
-        <v>706</v>
+        <v>864</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>866</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>940</v>
       </c>
-      <c r="D30" s="5" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E30" t="b">
+      <c r="C30" s="5"/>
+      <c r="D30" t="b">
         <v>1</v>
       </c>
+      <c r="E30" t="s">
+        <v>706</v>
+      </c>
       <c r="F30" t="s">
-        <v>706</v>
+        <v>864</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>867</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>939</v>
       </c>
-      <c r="D31" s="5" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E31" t="b">
+      <c r="C31" s="5"/>
+      <c r="D31" t="b">
         <v>1</v>
       </c>
+      <c r="E31" t="s">
+        <v>706</v>
+      </c>
       <c r="F31" t="s">
-        <v>706</v>
+        <v>864</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B32" t="s">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>868</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>941</v>
       </c>
-      <c r="D32" s="5" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E32" t="b">
+      <c r="C32" s="5"/>
+      <c r="D32" t="b">
         <v>1</v>
       </c>
+      <c r="E32" t="s">
+        <v>706</v>
+      </c>
       <c r="F32" t="s">
-        <v>706</v>
+        <v>864</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B33" t="s">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>869</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D33" s="5" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E33" t="b">
+      <c r="C33" s="5"/>
+      <c r="D33" t="b">
         <v>0</v>
       </c>
+      <c r="E33" t="s">
+        <v>724</v>
+      </c>
       <c r="F33" t="s">
-        <v>724</v>
+        <v>864</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B34" t="s">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>870</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="B34" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D34" s="5" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E34" t="b">
+      <c r="C34" s="5"/>
+      <c r="D34" t="b">
         <v>0</v>
       </c>
+      <c r="E34" t="s">
+        <v>721</v>
+      </c>
       <c r="F34" t="s">
-        <v>721</v>
+        <v>869</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B35" t="s">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>871</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="B35" s="1" t="s">
         <v>942</v>
       </c>
-      <c r="D35" s="5" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E35" t="b">
+      <c r="C35" s="5"/>
+      <c r="D35" t="b">
         <v>1</v>
       </c>
+      <c r="E35" t="s">
+        <v>721</v>
+      </c>
       <c r="F35" t="s">
-        <v>721</v>
+        <v>869</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B36" t="s">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>872</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>943</v>
       </c>
-      <c r="D36" s="5" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E36" t="b">
+      <c r="C36" s="5"/>
+      <c r="D36" t="b">
         <v>1</v>
       </c>
+      <c r="E36" t="s">
+        <v>721</v>
+      </c>
       <c r="F36" t="s">
-        <v>721</v>
+        <v>869</v>
       </c>
       <c r="G36" s="3" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B37" t="s">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>873</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="B37" s="1" t="s">
         <v>944</v>
       </c>
-      <c r="D37" s="5" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E37" t="b">
+      <c r="C37" s="5"/>
+      <c r="D37" t="b">
         <v>1</v>
       </c>
+      <c r="E37" t="s">
+        <v>721</v>
+      </c>
       <c r="F37" t="s">
-        <v>721</v>
+        <v>869</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B38" t="s">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>874</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="B38" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D38" s="5" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E38" t="b">
+      <c r="C38" s="5"/>
+      <c r="D38" t="b">
         <v>0</v>
       </c>
+      <c r="E38" t="s">
+        <v>739</v>
+      </c>
       <c r="F38" t="s">
-        <v>739</v>
+        <v>862</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B39" t="s">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>875</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="B39" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D39" s="5" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E39" t="b">
+      <c r="C39" s="5"/>
+      <c r="D39" t="b">
         <v>0</v>
       </c>
+      <c r="E39" t="s">
+        <v>736</v>
+      </c>
       <c r="F39" t="s">
-        <v>736</v>
+        <v>874</v>
       </c>
       <c r="G39" s="3" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B40" t="s">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>876</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="B40" s="1" t="s">
         <v>946</v>
       </c>
-      <c r="D40" s="5" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E40" t="b">
+      <c r="C40" s="5"/>
+      <c r="D40" t="b">
         <v>1</v>
       </c>
+      <c r="E40" t="s">
+        <v>736</v>
+      </c>
       <c r="F40" t="s">
-        <v>736</v>
+        <v>874</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B41" t="s">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>877</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="B41" s="1" t="s">
         <v>947</v>
       </c>
-      <c r="D41" s="5" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E41" t="b">
+      <c r="C41" s="5"/>
+      <c r="D41" t="b">
         <v>1</v>
       </c>
+      <c r="E41" t="s">
+        <v>736</v>
+      </c>
       <c r="F41" t="s">
-        <v>736</v>
+        <v>874</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B42" t="s">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>878</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>1024</v>
-      </c>
-      <c r="D42" s="5" t="s">
+      <c r="B42" s="1" t="s">
         <v>1022</v>
       </c>
-      <c r="E42" t="b">
+      <c r="C42" s="5"/>
+      <c r="D42" t="b">
         <v>1</v>
       </c>
+      <c r="E42" t="s">
+        <v>736</v>
+      </c>
       <c r="F42" t="s">
-        <v>736</v>
+        <v>874</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B43" t="s">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>879</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="B43" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D43" s="5" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E43" t="b">
+      <c r="C43" s="5"/>
+      <c r="D43" t="b">
         <v>0</v>
       </c>
+      <c r="E43" t="s">
+        <v>781</v>
+      </c>
       <c r="F43" t="s">
-        <v>781</v>
+        <v>862</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B44" t="s">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>880</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="B44" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D44" s="5" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E44" t="b">
+      <c r="C44" s="5"/>
+      <c r="D44" t="b">
         <v>0</v>
       </c>
+      <c r="E44" t="s">
+        <v>778</v>
+      </c>
       <c r="F44" t="s">
-        <v>778</v>
+        <v>879</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B45" t="s">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
         <v>881</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="B45" s="1" t="s">
         <v>948</v>
       </c>
-      <c r="D45" s="5" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E45" t="b">
+      <c r="C45" s="5"/>
+      <c r="D45" t="b">
         <v>1</v>
       </c>
+      <c r="E45" t="s">
+        <v>778</v>
+      </c>
       <c r="F45" t="s">
-        <v>778</v>
+        <v>879</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B46" t="s">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
         <v>882</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="B46" s="1" t="s">
         <v>949</v>
       </c>
-      <c r="D46" s="5" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E46" t="b">
+      <c r="C46" s="5"/>
+      <c r="D46" t="b">
         <v>1</v>
       </c>
+      <c r="E46" t="s">
+        <v>778</v>
+      </c>
       <c r="F46" t="s">
-        <v>778</v>
+        <v>879</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B47" t="s">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
         <v>883</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="B47" s="1" t="s">
         <v>950</v>
       </c>
-      <c r="D47" s="5" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E47" t="b">
+      <c r="C47" s="5"/>
+      <c r="D47" t="b">
         <v>1</v>
       </c>
+      <c r="E47" t="s">
+        <v>778</v>
+      </c>
       <c r="F47" t="s">
-        <v>778</v>
+        <v>879</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B48" t="s">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
         <v>884</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="B48" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D48" s="5" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E48" t="b">
+      <c r="C48" s="5"/>
+      <c r="D48" t="b">
         <v>0</v>
       </c>
+      <c r="E48" t="s">
+        <v>696</v>
+      </c>
       <c r="F48" t="s">
-        <v>696</v>
+        <v>879</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B49" t="s">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
         <v>885</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="B49" s="1" t="s">
         <v>951</v>
       </c>
-      <c r="D49" s="5" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E49" t="b">
+      <c r="C49" s="5"/>
+      <c r="D49" t="b">
         <v>0</v>
       </c>
+      <c r="E49" t="s">
+        <v>693</v>
+      </c>
       <c r="F49" t="s">
-        <v>693</v>
+        <v>884</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B50" t="s">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
         <v>886</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="B50" s="1" t="s">
         <v>952</v>
       </c>
-      <c r="D50" s="5" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E50" t="b">
+      <c r="C50" s="5"/>
+      <c r="D50" t="b">
         <v>1</v>
       </c>
+      <c r="E50" t="s">
+        <v>693</v>
+      </c>
       <c r="F50" t="s">
-        <v>693</v>
+        <v>884</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B51" t="s">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
         <v>887</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="B51" s="1" t="s">
         <v>953</v>
       </c>
-      <c r="D51" s="5" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E51" t="b">
+      <c r="C51" s="5"/>
+      <c r="D51" t="b">
         <v>1</v>
       </c>
+      <c r="E51" t="s">
+        <v>693</v>
+      </c>
       <c r="F51" t="s">
-        <v>693</v>
+        <v>884</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B52" t="s">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
         <v>888</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="B52" s="1" t="s">
         <v>954</v>
       </c>
-      <c r="D52" s="5" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E52" t="b">
+      <c r="C52" s="5"/>
+      <c r="D52" t="b">
         <v>1</v>
       </c>
+      <c r="E52" t="s">
+        <v>693</v>
+      </c>
       <c r="F52" t="s">
-        <v>693</v>
+        <v>884</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B53" t="s">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
         <v>889</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="B53" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D53" s="5" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E53" t="b">
+      <c r="C53" s="5"/>
+      <c r="D53" t="b">
         <v>0</v>
       </c>
+      <c r="E53" t="s">
+        <v>751</v>
+      </c>
       <c r="F53" t="s">
-        <v>751</v>
+        <v>862</v>
       </c>
       <c r="G53" s="3" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B54" t="s">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
         <v>890</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="B54" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D54" s="5" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E54" t="b">
+      <c r="C54" s="5"/>
+      <c r="D54" t="b">
         <v>0</v>
       </c>
+      <c r="E54" t="s">
+        <v>748</v>
+      </c>
       <c r="F54" t="s">
-        <v>748</v>
+        <v>889</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B55" t="s">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
         <v>891</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="B55" s="1" t="s">
         <v>955</v>
       </c>
-      <c r="D55" s="5" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E55" t="b">
+      <c r="C55" s="5"/>
+      <c r="D55" t="b">
         <v>1</v>
       </c>
+      <c r="E55" t="s">
+        <v>748</v>
+      </c>
       <c r="F55" t="s">
-        <v>748</v>
+        <v>889</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B56" t="s">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
         <v>892</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="B56" s="1" t="s">
         <v>956</v>
       </c>
-      <c r="D56" s="5" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E56" t="b">
+      <c r="C56" s="5"/>
+      <c r="D56" t="b">
         <v>1</v>
       </c>
+      <c r="E56" t="s">
+        <v>748</v>
+      </c>
       <c r="F56" t="s">
-        <v>748</v>
+        <v>889</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B57" t="s">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
         <v>893</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="B57" s="1" t="s">
         <v>957</v>
       </c>
-      <c r="D57" s="5" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E57" t="b">
+      <c r="C57" s="5"/>
+      <c r="D57" t="b">
         <v>1</v>
       </c>
+      <c r="E57" t="s">
+        <v>748</v>
+      </c>
       <c r="F57" t="s">
-        <v>748</v>
+        <v>889</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B58" t="s">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
         <v>894</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="B58" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D58" s="5" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E58" t="b">
+      <c r="C58" s="5"/>
+      <c r="D58" t="b">
         <v>0</v>
       </c>
+      <c r="E58" t="s">
+        <v>703</v>
+      </c>
       <c r="F58" t="s">
-        <v>703</v>
+        <v>862</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B59" t="s">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
         <v>895</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="B59" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D59" s="5" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E59" t="b">
+      <c r="C59" s="5"/>
+      <c r="D59" t="b">
         <v>0</v>
       </c>
+      <c r="E59" t="s">
+        <v>700</v>
+      </c>
       <c r="F59" t="s">
-        <v>700</v>
+        <v>894</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B60" t="s">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
         <v>896</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="B60" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D60" s="5" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E60" t="b">
+      <c r="C60" s="5"/>
+      <c r="D60" t="b">
         <v>1</v>
       </c>
+      <c r="E60" t="s">
+        <v>742</v>
+      </c>
       <c r="F60" t="s">
-        <v>742</v>
+        <v>894</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B61" t="s">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
         <v>897</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="B61" s="1" t="s">
         <v>958</v>
       </c>
-      <c r="D61" s="5" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E61" t="b">
+      <c r="C61" s="5"/>
+      <c r="D61" t="b">
         <v>1</v>
       </c>
+      <c r="E61" t="s">
+        <v>796</v>
+      </c>
       <c r="F61" t="s">
-        <v>796</v>
+        <v>894</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B62" t="s">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
         <v>898</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="B62" s="1" t="s">
         <v>959</v>
       </c>
-      <c r="D62" s="5" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E62" t="b">
+      <c r="C62" s="5"/>
+      <c r="D62" t="b">
         <v>1</v>
       </c>
+      <c r="E62" t="s">
+        <v>796</v>
+      </c>
       <c r="F62" t="s">
-        <v>796</v>
+        <v>894</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B63" t="s">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
         <v>899</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="B63" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D63" s="5" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E63" t="b">
+      <c r="C63" s="5"/>
+      <c r="D63" t="b">
         <v>0</v>
       </c>
+      <c r="E63" t="s">
+        <v>718</v>
+      </c>
       <c r="F63" t="s">
-        <v>718</v>
+        <v>862</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B64" t="s">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
         <v>900</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="B64" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D64" s="5" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E64" t="b">
+      <c r="C64" s="5"/>
+      <c r="D64" t="b">
         <v>0</v>
       </c>
+      <c r="E64" t="s">
+        <v>715</v>
+      </c>
       <c r="F64" t="s">
-        <v>715</v>
+        <v>899</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B65" t="s">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
         <v>901</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="B65" s="1" t="s">
         <v>960</v>
       </c>
-      <c r="D65" s="5" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E65" t="b">
+      <c r="C65" s="5"/>
+      <c r="D65" t="b">
         <v>1</v>
       </c>
+      <c r="E65" t="s">
+        <v>715</v>
+      </c>
       <c r="F65" t="s">
-        <v>715</v>
+        <v>899</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B66" t="s">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
         <v>902</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="B66" s="1" t="s">
         <v>961</v>
       </c>
-      <c r="D66" s="5" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E66" t="b">
+      <c r="C66" s="5"/>
+      <c r="D66" t="b">
         <v>1</v>
       </c>
+      <c r="E66" t="s">
+        <v>715</v>
+      </c>
       <c r="F66" t="s">
-        <v>715</v>
+        <v>899</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B67" t="s">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
         <v>903</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="B67" s="1" t="s">
         <v>962</v>
       </c>
-      <c r="D67" s="5" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E67" t="b">
+      <c r="C67" s="5"/>
+      <c r="D67" t="b">
         <v>1</v>
       </c>
+      <c r="E67" t="s">
+        <v>715</v>
+      </c>
       <c r="F67" t="s">
-        <v>715</v>
+        <v>899</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B68" t="s">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
         <v>904</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="B68" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D68" s="5" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E68" t="b">
+      <c r="C68" s="5"/>
+      <c r="D68" t="b">
         <v>0</v>
       </c>
+      <c r="E68" t="s">
+        <v>775</v>
+      </c>
       <c r="F68" t="s">
-        <v>775</v>
+        <v>899</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B69" t="s">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
         <v>905</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="B69" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D69" s="5" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E69" t="b">
+      <c r="C69" s="5"/>
+      <c r="D69" t="b">
         <v>0</v>
       </c>
+      <c r="E69" t="s">
+        <v>772</v>
+      </c>
       <c r="F69" t="s">
-        <v>772</v>
+        <v>904</v>
       </c>
       <c r="G69" s="1" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B70" t="s">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
         <v>906</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="B70" s="1" t="s">
         <v>963</v>
       </c>
-      <c r="D70" s="5" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E70" t="b">
+      <c r="C70" s="5"/>
+      <c r="D70" t="b">
         <v>0</v>
       </c>
+      <c r="E70" t="s">
+        <v>832</v>
+      </c>
       <c r="F70" t="s">
-        <v>832</v>
+        <v>904</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B71" t="s">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
         <v>907</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="B71" s="1" t="s">
         <v>964</v>
       </c>
-      <c r="D71" s="5" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E71" t="b">
+      <c r="C71" s="5"/>
+      <c r="D71" t="b">
         <v>0</v>
       </c>
+      <c r="E71" t="s">
+        <v>832</v>
+      </c>
       <c r="F71" t="s">
-        <v>832</v>
+        <v>904</v>
       </c>
       <c r="G71" s="1" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B72" t="s">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
         <v>908</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="B72" s="1" t="s">
         <v>965</v>
       </c>
-      <c r="D72" s="5" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E72" t="b">
+      <c r="C72" s="5"/>
+      <c r="D72" t="b">
         <v>0</v>
       </c>
+      <c r="E72" t="s">
+        <v>832</v>
+      </c>
       <c r="F72" t="s">
-        <v>832</v>
+        <v>904</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B73" t="s">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
         <v>909</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="B73" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D73" s="5" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E73" t="b">
+      <c r="C73" s="5"/>
+      <c r="D73" t="b">
         <v>0</v>
       </c>
+      <c r="E73" t="s">
+        <v>787</v>
+      </c>
       <c r="F73" t="s">
-        <v>787</v>
+        <v>862</v>
       </c>
       <c r="G73" s="1" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B74" t="s">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
         <v>910</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="B74" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D74" s="5" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E74" t="b">
+      <c r="C74" s="5"/>
+      <c r="D74" t="b">
         <v>0</v>
       </c>
+      <c r="E74" t="s">
+        <v>784</v>
+      </c>
       <c r="F74" t="s">
-        <v>784</v>
+        <v>909</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B75" t="s">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
         <v>911</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="B75" s="1" t="s">
         <v>966</v>
       </c>
-      <c r="D75" s="5" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E75" t="b">
+      <c r="C75" s="5"/>
+      <c r="D75" t="b">
         <v>1</v>
       </c>
+      <c r="E75" t="s">
+        <v>784</v>
+      </c>
       <c r="F75" t="s">
-        <v>784</v>
+        <v>909</v>
       </c>
       <c r="G75" s="3" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B76" t="s">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
         <v>912</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="B76" s="1" t="s">
         <v>967</v>
       </c>
-      <c r="D76" s="5" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E76" t="b">
+      <c r="C76" s="5"/>
+      <c r="D76" t="b">
         <v>1</v>
       </c>
+      <c r="E76" t="s">
+        <v>784</v>
+      </c>
       <c r="F76" t="s">
-        <v>784</v>
+        <v>909</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B77" t="s">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
         <v>913</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="B77" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D77" s="5" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E77" t="b">
+      <c r="C77" s="5"/>
+      <c r="D77" t="b">
         <v>0</v>
       </c>
+      <c r="E77" t="s">
+        <v>823</v>
+      </c>
       <c r="F77" t="s">
-        <v>823</v>
+        <v>909</v>
       </c>
       <c r="G77" s="1" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B78" t="s">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
         <v>914</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="B78" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D78" s="5" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E78" t="b">
+      <c r="C78" s="5"/>
+      <c r="D78" t="b">
         <v>0</v>
       </c>
+      <c r="E78" t="s">
+        <v>820</v>
+      </c>
       <c r="F78" t="s">
-        <v>820</v>
+        <v>913</v>
       </c>
       <c r="G78" s="1" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B79" t="s">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
         <v>915</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="B79" s="1" t="s">
         <v>968</v>
       </c>
-      <c r="D79" s="5" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E79" t="b">
+      <c r="C79" s="5"/>
+      <c r="D79" t="b">
         <v>1</v>
       </c>
+      <c r="E79" t="s">
+        <v>820</v>
+      </c>
       <c r="F79" t="s">
-        <v>820</v>
+        <v>913</v>
       </c>
       <c r="G79" s="1" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B80" t="s">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
         <v>916</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="B80" s="1" t="s">
         <v>969</v>
       </c>
-      <c r="D80" s="5" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E80" t="b">
+      <c r="C80" s="5"/>
+      <c r="D80" t="b">
         <v>1</v>
       </c>
+      <c r="E80" t="s">
+        <v>820</v>
+      </c>
       <c r="F80" t="s">
-        <v>820</v>
+        <v>913</v>
       </c>
       <c r="G80" s="1" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B81" t="s">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
         <v>917</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="B81" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D81" t="s">
+      <c r="C81" t="s">
         <v>970</v>
       </c>
-      <c r="E81" t="b">
+      <c r="D81" t="b">
         <v>0</v>
       </c>
+      <c r="E81" t="s">
+        <v>754</v>
+      </c>
       <c r="F81" t="s">
-        <v>754</v>
+        <v>861</v>
       </c>
       <c r="G81" s="1" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B82" t="s">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
         <v>918</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="B82" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D82" t="s">
+      <c r="C82" t="s">
         <v>971</v>
       </c>
-      <c r="E82" t="b">
+      <c r="D82" t="b">
         <v>0</v>
       </c>
+      <c r="E82" t="s">
+        <v>757</v>
+      </c>
       <c r="F82" t="s">
-        <v>757</v>
+        <v>917</v>
       </c>
       <c r="G82" s="1" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B83" t="s">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
         <v>919</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="B83" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D83" t="s">
+      <c r="C83" t="s">
         <v>972</v>
       </c>
-      <c r="E83" t="b">
+      <c r="D83" t="b">
         <v>0</v>
       </c>
+      <c r="E83" t="s">
+        <v>733</v>
+      </c>
       <c r="F83" t="s">
-        <v>733</v>
+        <v>918</v>
       </c>
       <c r="G83" s="1" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B84" t="s">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
         <v>920</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="B84" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D84" t="s">
+      <c r="C84" t="s">
         <v>974</v>
       </c>
-      <c r="E84" t="b">
+      <c r="D84" t="b">
         <v>1</v>
       </c>
+      <c r="E84" t="s">
+        <v>733</v>
+      </c>
       <c r="F84" t="s">
-        <v>733</v>
+        <v>919</v>
       </c>
       <c r="G84" s="1" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B85" t="s">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
         <v>921</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="B85" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D85" t="s">
+      <c r="C85" t="s">
         <v>975</v>
       </c>
-      <c r="E85" t="b">
+      <c r="D85" t="b">
         <v>0</v>
       </c>
+      <c r="E85" t="s">
+        <v>733</v>
+      </c>
       <c r="F85" t="s">
-        <v>733</v>
+        <v>918</v>
       </c>
       <c r="G85" s="1" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B86" t="s">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
         <v>922</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="B86" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D86" t="s">
+      <c r="C86" t="s">
         <v>976</v>
       </c>
-      <c r="E86" t="b">
+      <c r="D86" t="b">
         <v>1</v>
       </c>
+      <c r="E86" t="s">
+        <v>733</v>
+      </c>
       <c r="F86" t="s">
-        <v>733</v>
+        <v>921</v>
       </c>
       <c r="G86" s="1" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B87" t="s">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
         <v>923</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="B87" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D87" t="s">
+      <c r="C87" t="s">
         <v>977</v>
       </c>
-      <c r="E87" t="b">
+      <c r="D87" t="b">
         <v>0</v>
       </c>
+      <c r="E87" t="s">
+        <v>733</v>
+      </c>
       <c r="F87" t="s">
-        <v>733</v>
+        <v>918</v>
       </c>
       <c r="G87" s="1" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B88" t="s">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
         <v>924</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="B88" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D88" t="s">
+      <c r="C88" t="s">
         <v>978</v>
       </c>
-      <c r="E88" t="b">
+      <c r="D88" t="b">
         <v>1</v>
       </c>
+      <c r="E88" t="s">
+        <v>733</v>
+      </c>
       <c r="F88" t="s">
-        <v>733</v>
+        <v>923</v>
       </c>
       <c r="G88" s="1" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B89" t="s">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
         <v>925</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="B89" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D89" t="s">
+      <c r="C89" t="s">
         <v>979</v>
       </c>
-      <c r="E89" t="b">
+      <c r="D89" t="b">
         <v>0</v>
       </c>
+      <c r="E89" t="s">
+        <v>733</v>
+      </c>
       <c r="F89" t="s">
-        <v>733</v>
+        <v>918</v>
       </c>
       <c r="G89" s="1" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B90" t="s">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
         <v>926</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="B90" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D90" t="s">
+      <c r="C90" t="s">
         <v>980</v>
       </c>
-      <c r="E90" t="b">
+      <c r="D90" t="b">
         <v>1</v>
       </c>
+      <c r="E90" t="s">
+        <v>733</v>
+      </c>
       <c r="F90" t="s">
-        <v>733</v>
+        <v>925</v>
       </c>
       <c r="G90" s="1" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B91" t="s">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
         <v>927</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="B91" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D91" t="s">
+      <c r="C91" t="s">
         <v>981</v>
       </c>
-      <c r="E91" t="b">
+      <c r="D91" t="b">
         <v>0</v>
       </c>
+      <c r="E91" t="s">
+        <v>754</v>
+      </c>
       <c r="F91" t="s">
-        <v>754</v>
+        <v>861</v>
       </c>
       <c r="G91" s="1" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B92" t="s">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
         <v>928</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="B92" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D92" t="s">
+      <c r="C92" t="s">
         <v>982</v>
       </c>
-      <c r="E92" t="b">
+      <c r="D92" t="b">
         <v>0</v>
       </c>
+      <c r="E92" t="s">
+        <v>757</v>
+      </c>
       <c r="F92" t="s">
-        <v>757</v>
+        <v>927</v>
       </c>
       <c r="G92" s="1" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B93" t="s">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
         <v>929</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="B93" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D93" t="s">
+      <c r="C93" t="s">
         <v>983</v>
       </c>
-      <c r="E93" t="b">
+      <c r="D93" t="b">
         <v>0</v>
       </c>
+      <c r="E93" t="s">
+        <v>733</v>
+      </c>
       <c r="F93" t="s">
-        <v>733</v>
+        <v>928</v>
       </c>
       <c r="G93" s="1" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B94" t="s">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
         <v>930</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="B94" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D94" t="s">
+      <c r="C94" t="s">
         <v>984</v>
       </c>
-      <c r="E94" t="b">
+      <c r="D94" t="b">
         <v>1</v>
       </c>
+      <c r="E94" t="s">
+        <v>733</v>
+      </c>
       <c r="F94" t="s">
-        <v>733</v>
+        <v>929</v>
       </c>
       <c r="G94" s="1" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B95" t="s">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
         <v>931</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="B95" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D95" t="s">
+      <c r="C95" t="s">
         <v>985</v>
       </c>
-      <c r="E95" t="b">
+      <c r="D95" t="b">
         <v>0</v>
       </c>
+      <c r="E95" t="s">
+        <v>733</v>
+      </c>
       <c r="F95" t="s">
-        <v>733</v>
+        <v>928</v>
       </c>
       <c r="G95" s="1" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B96" t="s">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
         <v>932</v>
       </c>
-      <c r="C96" s="1" t="s">
+      <c r="B96" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D96" t="s">
+      <c r="C96" t="s">
         <v>986</v>
       </c>
-      <c r="E96" t="b">
+      <c r="D96" t="b">
         <v>1</v>
       </c>
+      <c r="E96" t="s">
+        <v>733</v>
+      </c>
       <c r="F96" t="s">
-        <v>733</v>
+        <v>931</v>
       </c>
       <c r="G96" s="1" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B97" t="s">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
         <v>933</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="B97" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D97" t="s">
+      <c r="C97" t="s">
         <v>987</v>
       </c>
-      <c r="E97" t="b">
+      <c r="D97" t="b">
         <v>0</v>
       </c>
+      <c r="E97" t="s">
+        <v>733</v>
+      </c>
       <c r="F97" t="s">
-        <v>733</v>
+        <v>928</v>
       </c>
       <c r="G97" s="1" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B98" t="s">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
         <v>934</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="B98" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D98" t="s">
+      <c r="C98" t="s">
         <v>988</v>
       </c>
-      <c r="E98" t="b">
+      <c r="D98" t="b">
         <v>1</v>
       </c>
+      <c r="E98" t="s">
+        <v>733</v>
+      </c>
       <c r="F98" t="s">
-        <v>733</v>
+        <v>933</v>
       </c>
       <c r="G98" s="1" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B99" t="s">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
         <v>935</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="B99" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D99" t="s">
+      <c r="C99" t="s">
         <v>989</v>
       </c>
-      <c r="E99" t="b">
+      <c r="D99" t="b">
         <v>0</v>
       </c>
+      <c r="E99" t="s">
+        <v>733</v>
+      </c>
       <c r="F99" t="s">
-        <v>733</v>
+        <v>928</v>
       </c>
       <c r="G99" s="1" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B100" t="s">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
         <v>936</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="B100" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D100" t="s">
+      <c r="C100" t="s">
         <v>990</v>
       </c>
-      <c r="E100" t="b">
+      <c r="D100" t="b">
         <v>1</v>
       </c>
+      <c r="E100" t="s">
+        <v>733</v>
+      </c>
       <c r="F100" t="s">
-        <v>733</v>
+        <v>935</v>
       </c>
       <c r="G100" s="1" t="s">
         <v>563</v>
@@ -12810,4 +13124,1501 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42C91260-8F47-8543-8C6C-62203DAABEAD}">
+  <dimension ref="A1:D29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>992</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C2" t="s">
+        <v>991</v>
+      </c>
+      <c r="D2" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D3" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D4" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D5" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D6" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D7" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D8" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D9" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D10" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D11" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D12" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1052</v>
+      </c>
+      <c r="D13" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D14" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1054</v>
+      </c>
+      <c r="D15" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D16" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D17" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D18" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D19" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D20" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D21" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D22" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D23" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D24" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D25" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D26" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D27" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D28" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D29" t="s">
+        <v>861</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{115304D2-493E-294E-A09A-9C51E3234C03}">
+  <dimension ref="A1:G119"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B2" t="s">
+        <v>838</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B3" t="s">
+        <v>839</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B4" t="s">
+        <v>840</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B5" t="s">
+        <v>841</v>
+      </c>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B6" t="s">
+        <v>843</v>
+      </c>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B7" t="s">
+        <v>853</v>
+      </c>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B8" t="s">
+        <v>860</v>
+      </c>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B9" t="s">
+        <v>841</v>
+      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B10" t="s">
+        <v>844</v>
+      </c>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B11" t="s">
+        <v>846</v>
+      </c>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B12" t="s">
+        <v>848</v>
+      </c>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B13" t="s">
+        <v>852</v>
+      </c>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B14" t="s">
+        <v>844</v>
+      </c>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B15" t="s">
+        <v>845</v>
+      </c>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B16" t="s">
+        <v>845</v>
+      </c>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B17" t="s">
+        <v>841</v>
+      </c>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B18" t="s">
+        <v>842</v>
+      </c>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B19" t="s">
+        <v>848</v>
+      </c>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B20" t="s">
+        <v>849</v>
+      </c>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B21" t="s">
+        <v>850</v>
+      </c>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B22" t="s">
+        <v>851</v>
+      </c>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B23" t="s">
+        <v>849</v>
+      </c>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B24" t="s">
+        <v>852</v>
+      </c>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B25" t="s">
+        <v>853</v>
+      </c>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B26" t="s">
+        <v>856</v>
+      </c>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B27" t="s">
+        <v>858</v>
+      </c>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B28" t="s">
+        <v>853</v>
+      </c>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B29" t="s">
+        <v>854</v>
+      </c>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B30" t="s">
+        <v>855</v>
+      </c>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B31" t="s">
+        <v>858</v>
+      </c>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B32" t="s">
+        <v>859</v>
+      </c>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B33" t="s">
+        <v>859</v>
+      </c>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B34" t="s">
+        <v>856</v>
+      </c>
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B35" t="s">
+        <v>857</v>
+      </c>
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B36" t="s">
+        <v>857</v>
+      </c>
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B37" t="s">
+        <v>860</v>
+      </c>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B38" t="s">
+        <v>861</v>
+      </c>
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B39" t="s">
+        <v>862</v>
+      </c>
+      <c r="G39" s="1"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B40" t="s">
+        <v>863</v>
+      </c>
+      <c r="G40" s="1"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B41" t="s">
+        <v>864</v>
+      </c>
+      <c r="G41" s="1"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B42" t="s">
+        <v>874</v>
+      </c>
+      <c r="G42" s="1"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B43" t="s">
+        <v>879</v>
+      </c>
+      <c r="G43" s="1"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B44" t="s">
+        <v>889</v>
+      </c>
+      <c r="G44" s="1"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B45" t="s">
+        <v>864</v>
+      </c>
+      <c r="G45" s="1"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B46" t="s">
+        <v>865</v>
+      </c>
+      <c r="G46" s="1"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B47" t="s">
+        <v>866</v>
+      </c>
+      <c r="G47" s="1"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B48" t="s">
+        <v>867</v>
+      </c>
+      <c r="G48" s="1"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B49" t="s">
+        <v>868</v>
+      </c>
+      <c r="G49" s="1"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B50" t="s">
+        <v>869</v>
+      </c>
+      <c r="G50" s="1"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B51" t="s">
+        <v>869</v>
+      </c>
+      <c r="G51" s="1"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B52" t="s">
+        <v>870</v>
+      </c>
+      <c r="G52" s="1"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B53" t="s">
+        <v>871</v>
+      </c>
+      <c r="G53" s="1"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B54" t="s">
+        <v>872</v>
+      </c>
+      <c r="G54" s="1"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B55" t="s">
+        <v>873</v>
+      </c>
+      <c r="G55" s="1"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B56" t="s">
+        <v>879</v>
+      </c>
+      <c r="G56" s="1"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B57" t="s">
+        <v>880</v>
+      </c>
+      <c r="G57" s="1"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B58" t="s">
+        <v>881</v>
+      </c>
+      <c r="G58" s="1"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B59" t="s">
+        <v>882</v>
+      </c>
+      <c r="G59" s="1"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B60" t="s">
+        <v>883</v>
+      </c>
+      <c r="G60" s="1"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B61" t="s">
+        <v>884</v>
+      </c>
+      <c r="G61" s="1"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" s="4" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B62" t="s">
+        <v>884</v>
+      </c>
+      <c r="G62" s="1"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" s="4" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B63" t="s">
+        <v>885</v>
+      </c>
+      <c r="G63" s="1"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" s="4" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B64" t="s">
+        <v>886</v>
+      </c>
+      <c r="G64" s="1"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" s="4" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B65" t="s">
+        <v>887</v>
+      </c>
+      <c r="G65" s="1"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" s="4" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B66" t="s">
+        <v>888</v>
+      </c>
+      <c r="G66" s="1"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B67" t="s">
+        <v>889</v>
+      </c>
+      <c r="G67" s="1"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B68" t="s">
+        <v>890</v>
+      </c>
+      <c r="G68" s="1"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B69" t="s">
+        <v>891</v>
+      </c>
+      <c r="G69" s="1"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B70" t="s">
+        <v>892</v>
+      </c>
+      <c r="G70" s="1"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B71" t="s">
+        <v>893</v>
+      </c>
+      <c r="G71" s="1"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B72" t="s">
+        <v>894</v>
+      </c>
+      <c r="G72" s="1"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B73" t="s">
+        <v>899</v>
+      </c>
+      <c r="G73" s="1"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B74" t="s">
+        <v>909</v>
+      </c>
+      <c r="G74" s="1"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B75" t="s">
+        <v>894</v>
+      </c>
+      <c r="G75" s="1"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B76" t="s">
+        <v>895</v>
+      </c>
+      <c r="G76" s="1"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B77" t="s">
+        <v>896</v>
+      </c>
+      <c r="G77" s="1"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B78" t="s">
+        <v>897</v>
+      </c>
+      <c r="G78" s="1"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B79" t="s">
+        <v>898</v>
+      </c>
+      <c r="G79" s="1"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B80" t="s">
+        <v>899</v>
+      </c>
+      <c r="G80" s="1"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B81" t="s">
+        <v>900</v>
+      </c>
+      <c r="G81" s="1"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B82" t="s">
+        <v>901</v>
+      </c>
+      <c r="G82" s="1"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B83" t="s">
+        <v>902</v>
+      </c>
+      <c r="G83" s="1"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B84" t="s">
+        <v>903</v>
+      </c>
+      <c r="G84" s="1"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B85" t="s">
+        <v>904</v>
+      </c>
+      <c r="G85" s="1"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B86" t="s">
+        <v>904</v>
+      </c>
+      <c r="G86" s="1"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B87" t="s">
+        <v>905</v>
+      </c>
+      <c r="G87" s="1"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B88" t="s">
+        <v>906</v>
+      </c>
+      <c r="G88" s="1"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B89" t="s">
+        <v>907</v>
+      </c>
+      <c r="G89" s="1"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B90" t="s">
+        <v>908</v>
+      </c>
+      <c r="G90" s="1"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B91" t="s">
+        <v>909</v>
+      </c>
+      <c r="G91" s="1"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B92" t="s">
+        <v>910</v>
+      </c>
+      <c r="G92" s="1"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B93" t="s">
+        <v>911</v>
+      </c>
+      <c r="G93" s="1"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B94" t="s">
+        <v>912</v>
+      </c>
+      <c r="G94" s="1"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B95" t="s">
+        <v>913</v>
+      </c>
+      <c r="G95" s="1"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B96" t="s">
+        <v>913</v>
+      </c>
+      <c r="G96" s="1"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B97" t="s">
+        <v>914</v>
+      </c>
+      <c r="G97" s="1"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B98" t="s">
+        <v>915</v>
+      </c>
+      <c r="G98" s="1"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B99" t="s">
+        <v>916</v>
+      </c>
+      <c r="G99" s="1"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B100" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B101" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B102" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B103" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B104" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B105" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B106" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B107" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B108" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B109" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B110" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B111" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B112" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B113" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B114" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B115" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B116" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B117" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B118" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B119" t="s">
+        <v>936</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>